--- a/pythonProject/projects/Comanda Alex Trifan/Comanda_PFL Alb_Alex Trifan.xlsx
+++ b/pythonProject/projects/Comanda Alex Trifan/Comanda_PFL Alb_Alex Trifan.xlsx
@@ -1687,25 +1687,11 @@
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" s="50">
-      <c r="A10" s="105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B10" s="105" t="n">
-        <v>596</v>
-      </c>
-      <c r="C10" s="105" t="n">
-        <v>1746</v>
-      </c>
-      <c r="D10" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="105" t="inlineStr">
-        <is>
-          <t>t1.pfl</t>
-        </is>
-      </c>
+      <c r="A10" s="105" t="n"/>
+      <c r="B10" s="105" t="n"/>
+      <c r="C10" s="105" t="n"/>
+      <c r="D10" s="105" t="n"/>
+      <c r="E10" s="105" t="n"/>
       <c r="F10" s="105" t="n"/>
       <c r="G10" s="105" t="n"/>
       <c r="H10" s="105" t="n"/>
@@ -1782,25 +1768,11 @@
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" s="50">
-      <c r="A11" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B11" s="108" t="n">
-        <v>946</v>
-      </c>
-      <c r="C11" s="108" t="n">
-        <v>708</v>
-      </c>
-      <c r="D11" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="108" t="inlineStr">
-        <is>
-          <t>j2.pfl</t>
-        </is>
-      </c>
+      <c r="A11" s="108" t="n"/>
+      <c r="B11" s="108" t="n"/>
+      <c r="C11" s="108" t="n"/>
+      <c r="D11" s="108" t="n"/>
+      <c r="E11" s="108" t="n"/>
       <c r="F11" s="108" t="n"/>
       <c r="G11" s="108" t="n"/>
       <c r="H11" s="108" t="n"/>
